--- a/Graphical application - task_meneger/tasks_and_responsibles.xlsx
+++ b/Graphical application - task_meneger/tasks_and_responsibles.xlsx
@@ -499,42 +499,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Васильева А.А.</t>
+          <t>Кузнецов В.Д.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-02-03 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-02-04 19:20</t>
+          <t>2025-03-04 00:11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-03-06 19:20</t>
+          <t>2025-03-22 00:11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-02-03 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -551,37 +551,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Петров В.Д.</t>
+          <t>Петров Д.А.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Бизнес-аналитик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-04-03 00:11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -603,37 +603,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Васильева Е.А.</t>
+          <t>Иванов В.Д.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-02-05 19:20</t>
+          <t>2025-02-17 00:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-03-04 00:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-02-05 19:20</t>
+          <t>2025-02-17 00:11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Кузнецова О.И.</t>
+          <t>Смирнова С.А.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -665,22 +665,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-03-12 00:11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-03-06 19:20</t>
+          <t>2025-03-17 00:11</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -707,37 +707,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Кузнецова О.И.</t>
+          <t>Иванова С.А.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-03-09 19:20</t>
+          <t>2025-04-01 00:11</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -759,37 +759,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Сидоров М.С.</t>
+          <t>Сидоров А.А.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Тестировщик</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-02-07 00:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-02-14 19:20</t>
+          <t>2025-02-08 00:11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-07 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-02-07 00:11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -811,32 +811,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Васильева Т.Д.</t>
+          <t>Кузнецова А.А.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Менеджер</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-02-19 00:11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-03-10 19:20</t>
+          <t>2025-03-14 00:11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -863,32 +863,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Иванова М.А.</t>
+          <t>Сидоров В.Д.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-02-21 00:11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-03-11 00:11</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -915,32 +915,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Иванова Е.С.</t>
+          <t>Кузнецова А.А.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Менеджер</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-03-04 19:20</t>
+          <t>2025-03-21 00:11</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -967,42 +967,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Кузнецов П.А.</t>
+          <t>Соколов Д.И.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-03-05 00:11</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-03-03 19:20</t>
+          <t>2025-04-01 00:11</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Васильева С.Д.</t>
+          <t>Васильева Е.А.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-02-15 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-03-12 00:11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-03-12 19:20</t>
+          <t>2025-03-26 00:11</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-02-15 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Кузнецова О.И.</t>
+          <t>Смирнова С.А.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-12 00:11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-03-18 19:20</t>
+          <t>2025-02-21 00:11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -1123,32 +1123,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Сидорова М.С.</t>
+          <t>Петрова Т.А.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Системный администратор</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-03-23 19:20</t>
+          <t>2025-03-15 00:11</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -1175,32 +1175,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Иванов С.Д.</t>
+          <t>Васильев Н.А.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-02-03 19:20</t>
+          <t>2025-02-08 00:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-02-10 19:20</t>
+          <t>2025-02-14 00:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-03-10 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-02-03 19:20</t>
+          <t>2025-02-08 00:11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -1227,32 +1227,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Сидоров М.С.</t>
+          <t>Иванов С.И.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-02-19 19:20</t>
+          <t>2025-03-21 00:11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Васильев П.С.</t>
+          <t>Петров И.А.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Системный администратор</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-02-04 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-03-07 19:20</t>
+          <t>2025-04-03 00:11</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-02-04 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -1331,37 +1331,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Сидоров П.Д.</t>
+          <t>Петрова Е.С.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Технический писатель</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-02-03 19:20</t>
+          <t>2025-02-10 00:11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-02-19 00:11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-03-07 00:11</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-02-03 19:20</t>
+          <t>2025-02-10 00:11</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1383,32 +1383,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Сидорова М.С.</t>
+          <t>Петрова Е.С.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-02-09 00:11</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-02-10 00:11</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-02-09 00:11</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -1435,32 +1435,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Сидоров В.С.</t>
+          <t>Петров И.А.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Системный администратор</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-02-18 00:11</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-03-13 19:20</t>
+          <t>2025-03-15 00:11</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-02-18 00:11</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -1487,32 +1487,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Смирнова М.С.</t>
+          <t>Сидоров А.С.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-03-04 00:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-03-06 19:20</t>
+          <t>2025-03-14 00:11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-03-27 19:20</t>
+          <t>2025-04-12 00:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-03-04 00:11</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1539,37 +1539,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Сидоров П.Д.</t>
+          <t>Петрова Е.С.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Технический писатель</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-02-19 00:11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-03-24 19:20</t>
+          <t>2025-03-19 00:11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-02-19 00:11</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1591,37 +1591,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Попов Н.А.</t>
+          <t>Иванов С.И.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1643,32 +1643,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Попова Е.Д.</t>
+          <t>Петрова Т.А.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Системный администратор</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-03-07 00:11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-03-14 00:11</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-04-06 00:11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-03-07 00:11</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Смирнова С.Д.</t>
+          <t>Попова О.И.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1705,22 +1705,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-02-06 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-02-22 19:20</t>
+          <t>2025-03-31 00:11</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1747,42 +1747,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Иванов С.Д.</t>
+          <t>Соколов Д.И.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-03-18 00:11</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Попов И.А.</t>
+          <t>Петров Д.А.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1809,22 +1809,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-02-06 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-03-01 00:11</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-03-19 00:11</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-02-06 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -1851,32 +1851,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Кузнецова С.П.</t>
+          <t>Попов М.П.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Тестировщик</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-02-21 00:11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-03-01 00:11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-03-06 19:20</t>
+          <t>2025-03-29 00:11</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-02-21 00:11</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1903,32 +1903,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Иванов И.А.</t>
+          <t>Васильева Е.А.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-09 00:11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-03-11 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-09 00:11</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Сидорова М.С.</t>
+          <t>Петрова Е.С.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1965,22 +1965,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-02-13 00:11</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-03-08 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-03-30 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-02-13 00:11</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -2007,32 +2007,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Попова Е.Д.</t>
+          <t>Кузнецова Е.Д.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Тестировщик</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-03-12 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -2059,32 +2059,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Попов М.П.</t>
+          <t>Петрова Е.С.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-03-07 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-04-05 19:20</t>
+          <t>2025-03-17 00:11</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -2111,32 +2111,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Сидорова Н.А.</t>
+          <t>Петров И.А.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Системный администратор</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-03-31 19:20</t>
+          <t>2025-03-22 00:11</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -2163,32 +2163,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Петрова М.И.</t>
+          <t>Сидоров И.И.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-03-03 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-03-06 19:20</t>
+          <t>2025-03-04 00:11</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-03-28 19:20</t>
+          <t>2025-03-24 00:11</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-03-03 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2215,32 +2215,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Соколов А.С.</t>
+          <t>Кузнецов И.И.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-03-07 19:20</t>
+          <t>2025-03-01 00:11</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-03-20 19:20</t>
+          <t>2025-03-30 00:11</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -2267,32 +2267,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Петрова М.И.</t>
+          <t>Кузнецов П.А.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-03-15 00:11</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-03-18 19:20</t>
+          <t>2025-04-07 00:11</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -2319,37 +2319,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Кузнецов П.А.</t>
+          <t>Сидоров В.Д.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-02-22 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-03-02 19:20</t>
+          <t>2025-02-18 00:11</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-03-12 19:20</t>
+          <t>2025-03-05 00:11</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-02-22 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2371,32 +2371,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Петрова С.А.</t>
+          <t>Кузнецов В.Д.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-03-25 19:20</t>
+          <t>2025-03-23 00:11</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2423,37 +2423,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Васильева С.Д.</t>
+          <t>Сидоров А.С.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-02-07 00:11</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-02-22 19:20</t>
+          <t>2025-02-14 00:11</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-02-07 00:11</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2475,32 +2475,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Васильева Т.Д.</t>
+          <t>Иванов В.Д.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-09 00:11</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-02-05 19:20</t>
+          <t>2025-02-18 00:11</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-02-22 19:20</t>
+          <t>2025-03-10 00:11</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-09 00:11</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -2527,37 +2527,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Петрова М.И.</t>
+          <t>Васильев Н.А.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-03-02 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-03-08 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-04-01 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-03-02 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2579,37 +2579,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Петров П.П.</t>
+          <t>Петрова Т.П.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-03-20 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2631,37 +2631,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Васильева Е.А.</t>
+          <t>Сидоров Д.И.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-03-11 00:11</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-03-11 19:20</t>
+          <t>2025-03-24 00:11</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2683,32 +2683,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Петров В.Д.</t>
+          <t>Попов М.П.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Бизнес-аналитик</t>
+          <t>Программист</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-02-17 00:11</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-03-04 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-02-17 00:11</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2735,32 +2735,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Попова Т.А.</t>
+          <t>Сидоров И.И.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-02-14 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-03-11 19:20</t>
+          <t>2025-03-14 00:11</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-02-14 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Петрова М.И.</t>
+          <t>Кузнецов Н.П.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2797,27 +2797,27 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-03-17 00:11</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2839,37 +2839,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Попова Т.А.</t>
+          <t>Васильева М.П.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Менеджер</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-03-04 19:20</t>
+          <t>2025-02-14 00:11</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-03-16 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2891,32 +2891,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Сидоров М.С.</t>
+          <t>Попова О.И.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-02-09 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-02-21 00:11</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-03-07 19:20</t>
+          <t>2025-03-22 00:11</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-02-09 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Васильева С.Д.</t>
+          <t>Смирнова С.А.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2953,22 +2953,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-03-18 19:20</t>
+          <t>2025-03-22 00:11</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -2995,42 +2995,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Попова Е.Д.</t>
+          <t>Сидорова А.А.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-02-18 00:11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-03-05 19:20</t>
+          <t>2025-02-21 00:11</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-04-02 19:20</t>
+          <t>2025-03-14 00:11</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-02-18 00:11</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -3047,32 +3047,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Петров В.Д.</t>
+          <t>Кузнецова Е.Д.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Бизнес-аналитик</t>
+          <t>Тестировщик</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-03-17 19:20</t>
+          <t>2025-03-27 00:11</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -3099,32 +3099,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Иванов И.А.</t>
+          <t>Кузнецов А.П.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-02-04 19:20</t>
+          <t>2025-02-07 00:11</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-02-12 00:11</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-03-02 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-02-04 19:20</t>
+          <t>2025-02-07 00:11</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -3156,27 +3156,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-03-07 00:11</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-03-13 00:11</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-04-12 00:11</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-03-07 00:11</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -3203,42 +3203,42 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Иванова М.А.</t>
+          <t>Петрова Е.С.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Технический писатель</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-17 00:11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-02-03 19:20</t>
+          <t>2025-02-18 00:11</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-03-05 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-17 00:11</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -3255,32 +3255,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Соколов П.И.</t>
+          <t>Кузнецов П.А.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Аналитик</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-03-08 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-03-24 19:20</t>
+          <t>2025-03-15 00:11</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -3307,42 +3307,42 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Сидорова М.С.</t>
+          <t>Кузнецов Н.П.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Менеджер</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-03-09 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-03-30 19:20</t>
+          <t>2025-03-17 00:11</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -3359,32 +3359,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Иванова О.А.</t>
+          <t>Васильева Е.А.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-03-07 00:11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-03-17 00:11</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-03-09 19:20</t>
+          <t>2025-04-14 00:11</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-03-07 00:11</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -3411,32 +3411,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Соколов И.И.</t>
+          <t>Сидоров М.А.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-03-15 19:20</t>
+          <t>2025-03-21 00:11</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3463,42 +3463,42 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Иванова Е.С.</t>
+          <t>Соколов И.А.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-02-10 19:20</t>
+          <t>2025-02-08 00:11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-02-12 00:11</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-02-10 19:20</t>
+          <t>2025-02-08 00:11</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -3515,42 +3515,42 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Кузнецова О.Д.</t>
+          <t>Васильева М.А.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-03-27 00:11</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -3572,27 +3572,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Тестировщик</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-02-26 00:11</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-03-22 00:11</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-02-26 00:11</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -3619,37 +3619,37 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Васильев Н.А.</t>
+          <t>Кузнецова Е.Д.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Тестировщик</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-03-03 19:20</t>
+          <t>2025-03-17 00:11</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3671,42 +3671,42 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Васильев П.С.</t>
+          <t>Васильев С.А.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Программист</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-03-06 19:20</t>
+          <t>2025-03-18 00:11</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-03-22 19:20</t>
+          <t>2025-04-03 00:11</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -3723,32 +3723,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Сидоров А.П.</t>
+          <t>Сидорова С.Д.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-03-08 19:20</t>
+          <t>2025-03-23 00:11</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -3775,37 +3775,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Соколов И.И.</t>
+          <t>Кузнецов Н.П.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Менеджер</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-03-19 19:20</t>
+          <t>2025-03-29 00:11</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-03-02 00:11</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3827,42 +3827,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Сидоров М.С.</t>
+          <t>Сидорова Е.И.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-02-13 00:11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-02-17 00:11</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-03-05 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-02-13 00:11</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -3879,32 +3879,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Попова Т.А.</t>
+          <t>Сидоров М.А.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-03-09 19:20</t>
+          <t>2025-03-18 00:11</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3931,37 +3931,37 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Васильева Н.С.</t>
+          <t>Сидорова А.А.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-02-26 00:11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-02-19 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-03-07 19:20</t>
+          <t>2025-04-01 00:11</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-02-16 19:20</t>
+          <t>2025-02-26 00:11</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3983,32 +3983,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Кузнецова О.И.</t>
+          <t>Петров Д.А.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-02-19 19:20</t>
+          <t>2025-02-13 00:11</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-02-18 00:11</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-03-25 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-02-19 19:20</t>
+          <t>2025-02-13 00:11</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -4035,42 +4035,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Петрова Т.Д.</t>
+          <t>Иванов А.И.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Технический писатель</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-02-10 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-02-19 00:11</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-03-19 19:20</t>
+          <t>2025-03-04 00:11</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-02-10 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -4087,42 +4087,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Смирнов М.И.</t>
+          <t>Кузнецов И.И.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Аналитик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-02-04 19:20</t>
+          <t>2025-02-07 00:11</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-02-04 19:20</t>
+          <t>2025-02-07 00:11</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Сидоров В.С.</t>
+          <t>Кузнецов В.Д.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4149,27 +4149,27 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-02-26 00:11</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-03-21 19:20</t>
+          <t>2025-03-04 00:11</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-24 00:11</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4191,37 +4191,37 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Попова Т.А.</t>
+          <t>Сидоров А.А.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Тестировщик</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-02-21 00:11</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-03-07 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-04-02 19:20</t>
+          <t>2025-03-11 00:11</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-02-28 19:20</t>
+          <t>2025-02-21 00:11</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4243,32 +4243,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Сидоров В.С.</t>
+          <t>Петрова Е.С.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-02-10 19:20</t>
+          <t>2025-02-12 00:11</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-03-12 00:11</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-02-10 19:20</t>
+          <t>2025-02-12 00:11</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Попова Е.Д.</t>
+          <t>Васильева М.П.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4305,22 +4305,22 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-12 00:11</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-02-05 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-02-22 19:20</t>
+          <t>2025-03-18 00:11</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-12 00:11</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -4347,37 +4347,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Петрова О.П.</t>
+          <t>Смирнова Т.И.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Системный администратор</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-02-13 00:11</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-02-14 19:20</t>
+          <t>2025-02-23 00:11</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-03-07 19:20</t>
+          <t>2025-03-10 00:11</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-02-13 00:11</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4399,42 +4399,42 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Сидорова Н.А.</t>
+          <t>Васильева М.А.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-02-15 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-03-15 19:20</t>
+          <t>2025-03-12 00:11</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-02-15 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -4451,32 +4451,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Петров П.П.</t>
+          <t>Кузнецов А.П.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-03-20 19:20</t>
+          <t>2025-03-27 00:11</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4503,32 +4503,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Петрова О.П.</t>
+          <t>Смирнова С.А.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Системный администратор</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-21 00:11</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-02-04 19:20</t>
+          <t>2025-02-26 00:11</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-03-10 00:11</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-02-02 19:20</t>
+          <t>2025-02-21 00:11</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4555,32 +4555,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Сидоров В.С.</t>
+          <t>Сидоров А.А.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Тестировщик</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-03-02 19:20</t>
+          <t>2025-02-26 00:11</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-03-05 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-03-14 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-03-02 19:20</t>
+          <t>2025-02-26 00:11</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4607,32 +4607,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Васильева А.А.</t>
+          <t>Попов В.С.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-03-14 00:11</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-03-03 19:20</t>
+          <t>2025-04-03 00:11</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-03-08 00:11</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -4659,42 +4659,42 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Иванова М.А.</t>
+          <t>Петров Д.А.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-03-18 00:11</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-03-14 19:20</t>
+          <t>2025-04-07 00:11</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -4711,42 +4711,42 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Смирнова М.С.</t>
+          <t>Петрова Е.С.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-02-06 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-03-13 19:20</t>
+          <t>2025-03-01 00:11</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-02-06 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -4763,37 +4763,37 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Сидоров А.П.</t>
+          <t>Смирнова Т.И.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Системный администратор</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-02-07 00:11</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-02-04 19:20</t>
+          <t>2025-02-10 00:11</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-02-07 00:11</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4815,32 +4815,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Сидоров Н.А.</t>
+          <t>Сидоров Д.И.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-02-05 19:20</t>
+          <t>2025-02-13 00:11</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-02-13 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-03-14 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-02-05 19:20</t>
+          <t>2025-02-13 00:11</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Попов И.А.</t>
+          <t>Кузнецов А.П.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4877,22 +4877,22 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-03-02 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-03-07 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-03-29 19:20</t>
+          <t>2025-03-12 00:11</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-03-02 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4919,37 +4919,37 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Иванов И.А.</t>
+          <t>Сидоров Д.И.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4971,37 +4971,37 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Сидорова Н.А.</t>
+          <t>Кузнецова Е.Д.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Тестировщик</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-14 00:11</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-03-08 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-03-24 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-14 00:11</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5023,42 +5023,42 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Петров П.П.</t>
+          <t>Кузнецов А.П.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-02-08 19:20</t>
+          <t>2025-03-04 00:11</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-03-06 19:20</t>
+          <t>2025-03-29 00:11</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-02-07 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -5075,37 +5075,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Сидоров Н.А.</t>
+          <t>Попова Е.П.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Системный администратор</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-02-06 19:20</t>
+          <t>2025-02-17 00:11</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-02-25 19:20</t>
+          <t>2025-03-03 00:11</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5127,37 +5127,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Сидорова Н.А.</t>
+          <t>Васильев Н.А.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-03-02 19:20</t>
+          <t>2025-02-22 00:11</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-03-29 19:20</t>
+          <t>2025-03-01 00:11</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2025-02-21 19:20</t>
+          <t>2025-02-16 00:11</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Васильева А.А.</t>
+          <t>Иванова Т.А.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5189,22 +5189,22 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-03-01 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-03-20 19:20</t>
+          <t>2025-03-11 00:11</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2025-02-24 19:20</t>
+          <t>2025-02-11 00:11</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5231,32 +5231,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Сидоров Н.А.</t>
+          <t>Сидорова С.Д.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-02-17 19:20</t>
+          <t>2025-03-07 00:11</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-02-23 19:20</t>
+          <t>2025-03-15 00:11</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-02-28 00:11</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -5283,32 +5283,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Васильев П.С.</t>
+          <t>Сидорова А.А.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Дизайнер</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-02-19 19:20</t>
+          <t>2025-02-18 00:11</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-02-27 19:20</t>
+          <t>2025-02-19 00:11</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-03-15 19:20</t>
+          <t>2025-03-09 00:11</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2025-02-19 19:20</t>
+          <t>2025-02-18 00:11</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -5335,32 +5335,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Кузнецова С.П.</t>
+          <t>Кузнецов А.П.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-02-26 00:11</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-03-20 19:20</t>
+          <t>2025-03-15 00:11</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-02-26 00:11</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Сидоров Н.А.</t>
+          <t>Попов С.П.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5397,32 +5397,32 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-02-09 19:20</t>
+          <t>2025-03-10 00:11</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-03-03 19:20</t>
+          <t>2025-03-20 00:11</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-03-06 00:11</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -5439,32 +5439,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Иванова О.А.</t>
+          <t>Попов С.П.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Технический писатель</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-02-22 19:20</t>
+          <t>2025-03-04 00:11</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-03-12 19:20</t>
+          <t>2025-03-31 00:11</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2025-02-20 19:20</t>
+          <t>2025-02-25 00:11</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -5491,37 +5491,37 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Смирнова М.С.</t>
+          <t>Петрова Е.Д.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-02-10 00:11</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-02-26 19:20</t>
+          <t>2025-02-15 00:11</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-03-22 19:20</t>
+          <t>2025-03-15 00:11</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2025-02-18 19:20</t>
+          <t>2025-02-10 00:11</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5543,42 +5543,42 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Попова Е.Д.</t>
+          <t>Васильева Е.А.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2025-02-22 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-03-04 19:20</t>
+          <t>2025-03-01 00:11</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-03-10 19:20</t>
+          <t>2025-03-26 00:11</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2025-02-22 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -5595,32 +5595,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Попов И.А.</t>
+          <t>Сидоров А.А.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Тестировщик</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-02-22 19:20</t>
+          <t>2025-02-27 00:11</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-03-02 19:20</t>
+          <t>2025-03-07 00:11</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2025-02-12 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Сидорова Н.А.</t>
+          <t>Петрова Е.А.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5657,27 +5657,27 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-02-14 00:11</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-02-05 19:20</t>
+          <t>2025-02-20 00:11</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-02-11 19:20</t>
+          <t>2025-03-14 00:11</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2025-02-01 19:20</t>
+          <t>2025-02-14 00:11</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5720,43 +5720,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Иванов И.А.</t>
+          <t>Васильева М.И.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Васильева Н.С.</t>
+          <t>Сидоров Д.И.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Попов М.П.</t>
+          <t>Сидоров М.А.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Дизайнер</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кузнецова О.С.</t>
+          <t>Попов М.П.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5768,343 +5768,343 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Сидоров Н.А.</t>
+          <t>Сидоров И.И.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Аналитик</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Кузнецова С.П.</t>
+          <t>Кузнецов Н.П.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Менеджер</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Петров В.Д.</t>
+          <t>Петрова Т.П.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Бизнес-аналитик</t>
+          <t>Аналитик</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Иванова Е.С.</t>
+          <t>Кузнецов П.А.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Дизайнер</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Иванова М.А.</t>
+          <t>Попов М.П.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Программист</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Сидоров М.С.</t>
+          <t>Попова О.И.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Попова Т.А.</t>
+          <t>Васильев Н.А.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Аналитик</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Васильева Т.С.</t>
+          <t>Петров И.А.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Системный администратор</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Сидоров П.Д.</t>
+          <t>Кузнецов В.Д.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Дизайнер</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Соколов И.И.</t>
+          <t>Петрова Е.А.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Дизайнер</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Сидоров В.С.</t>
+          <t>Кузнецова Е.Д.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Тестировщик</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Петрова М.И.</t>
+          <t>Васильев А.И.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Дизайнер</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Смирнова М.С.</t>
+          <t>Петрова Е.С.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Попов Н.А.</t>
+          <t>Васильева Т.И.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Программист</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Петрова О.П.</t>
+          <t>Смирнова Т.И.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Системный администратор</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Иванова М.А.</t>
+          <t>Сидоров А.С.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Дизайнер</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Смирнова С.Д.</t>
+          <t>Попова Е.П.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Бизнес-аналитик</t>
+          <t>Системный администратор</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Кузнецова О.И.</t>
+          <t>Сидорова А.А.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Дизайнер</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Соколов А.С.</t>
+          <t>Кузнецов И.И.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Иванова С.А.</t>
+          <t>Попов В.С.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Аналитик</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Васильева С.Д.</t>
+          <t>Иванов В.Д.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Петрова Т.Д.</t>
+          <t>Иванова Т.А.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Программист</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Иванов С.Д.</t>
+          <t>Сидорова С.Д.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Аналитик</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Васильев П.С.</t>
+          <t>Васильева М.А.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Сидорова М.С.</t>
+          <t>Попова М.А.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Дизайнер</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Иванова Н.П.</t>
+          <t>Смирнова С.А.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Системный администратор</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Сидоров А.П.</t>
+          <t>Иванов С.И.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Смирнова Е.С.</t>
+          <t>Петров Д.А.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Васильев Н.А.</t>
+          <t>Смирнова А.Д.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6116,7 +6116,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Иванова О.А.</t>
+          <t>Сидоров А.А.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6128,139 +6128,139 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Васильева А.А.</t>
+          <t>Васильева М.П.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Менеджер</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Васильева Е.А.</t>
+          <t>Попов С.П.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Технический писатель</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Кузнецова О.Д.</t>
+          <t>Кузнецов А.П.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Кузнецова М.Д.</t>
+          <t>Васильев С.А.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Бизнес-аналитик</t>
+          <t>Программист</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Петрова С.А.</t>
+          <t>Сидорова Е.И.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Тестировщик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Попов И.А.</t>
+          <t>Иванов А.И.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Руководитель проекта</t>
+          <t>Технический писатель</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Сидорова Н.А.</t>
+          <t>Кузнецова А.А.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Менеджер</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Попова Т.А.</t>
+          <t>Петрова Е.С.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Технический писатель</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Кузнецов П.А.</t>
+          <t>Сидоров В.Д.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Технический писатель</t>
+          <t>Дизайнер</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Смирнов М.И.</t>
+          <t>Петрова Е.Д.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Аналитик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Попова Е.Д.</t>
+          <t>Иванова С.А.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Аналитик</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Петров П.П.</t>
+          <t>Петрова Т.А.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6272,19 +6272,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Васильева Т.Д.</t>
+          <t>Соколов Д.И.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Бизнес-аналитик</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Кузнецова Е.И.</t>
+          <t>Соколов И.А.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6296,24 +6296,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Сидорова Н.А.</t>
+          <t>Смирнов П.А.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Дизайнер</t>
+          <t>Технический писатель</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Соколов П.И.</t>
+          <t>Васильева Е.А.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Аналитик</t>
+          <t>Руководитель проекта</t>
         </is>
       </c>
     </row>
